--- a/colo/missingD.xlsx
+++ b/colo/missingD.xlsx
@@ -1027,7 +1027,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1517450682852807</v>
+        <v>75.87253414264038</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>87.25341426403642</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>66.46433990895297</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
